--- a/数据处理.xlsx
+++ b/数据处理.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\光电校靶\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\矩阵转换\temp\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83547D9-AC2C-4F82-929D-D08FDFC0B14F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D58F97-9A0E-4743-9C40-BFC7B32927E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EBE9A094-9BC8-4925-8959-37114C07637F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="581">
   <si>
     <t>(270,-180,0)</t>
   </si>
@@ -16871,36 +16871,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">时间漂移初始：(0°0′0″，-0°0′2″，-0°0′2″)  10min:(-0°0′1″，0°0′6″，-0°0′8″)
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立刻误差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10min后误差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三轴合成误差</t>
+    <t>三轴合成精度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -17817,8 +17797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A854247-99D9-4198-8630-CC185162FEB0}">
   <dimension ref="A1:S309"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="D184" workbookViewId="0">
+      <selection activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23901,15 +23881,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8889A5-D461-43FA-A575-339FC9474900}">
-  <dimension ref="A1:AD222"/>
+  <dimension ref="A1:AD229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V209" sqref="V209"/>
+    <sheetView tabSelected="1" topLeftCell="D199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R219" sqref="R219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -29812,7 +29793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>223</v>
       </c>
@@ -29874,7 +29855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="53" t="s">
         <v>236</v>
       </c>
@@ -29886,7 +29867,7 @@
       <c r="G149" s="54"/>
       <c r="H149" s="55"/>
     </row>
-    <row r="150" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="59"/>
       <c r="B150" s="60"/>
       <c r="C150" s="51"/>
@@ -29896,7 +29877,7 @@
       <c r="G150" s="51"/>
       <c r="H150" s="57"/>
     </row>
-    <row r="151" spans="1:18" ht="57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" ht="57" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>4</v>
       </c>
@@ -29920,7 +29901,7 @@
       <c r="M151" s="65"/>
       <c r="N151" s="50"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C152" s="15" t="s">
         <v>10</v>
       </c>
@@ -29941,8 +29922,11 @@
         <v>12</v>
       </c>
       <c r="N152" s="16"/>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA152">
+        <v>27.906685700688602</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>239</v>
       </c>
@@ -29991,8 +29975,11 @@
         <f t="shared" si="167"/>
         <v>-57.451388888888893</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA153">
+        <v>41.712797548540202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>240</v>
       </c>
@@ -30041,8 +30028,11 @@
         <f t="shared" ref="N154" si="170">IF(LEFT(M154,1)="-",-(MID(M154,2,FIND("°",M154)-2)+MID(M154,FIND("°",M154)+1,FIND("′",M154)-FIND("°",M154)-1)/60+MID(M154,FIND("′",M154)+1,FIND("″",M154)-FIND("′",M154)-1)/3600),LEFT(M154,FIND("°",M154)-1)+MID(M154,FIND("°",M154)+1,FIND("′",M154)-FIND("°",M154)-1)/60+MID(M154,FIND("′",M154)+1,FIND("″",M154)-FIND("′",M154)-1)/3600)</f>
         <v>-28.68</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA154">
+        <v>5.1310831836556599</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>241</v>
       </c>
@@ -30091,8 +30081,11 @@
         <f t="shared" ref="N155" si="173">IF(LEFT(M155,1)="-",-(MID(M155,2,FIND("°",M155)-2)+MID(M155,FIND("°",M155)+1,FIND("′",M155)-FIND("°",M155)-1)/60+MID(M155,FIND("′",M155)+1,FIND("″",M155)-FIND("′",M155)-1)/3600),LEFT(M155,FIND("°",M155)-1)+MID(M155,FIND("°",M155)+1,FIND("′",M155)-FIND("°",M155)-1)/60+MID(M155,FIND("′",M155)+1,FIND("″",M155)-FIND("′",M155)-1)/3600)</f>
         <v>-43.995555555555555</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA155">
+        <v>12.713420004879399</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>242</v>
       </c>
@@ -30141,8 +30134,11 @@
         <f t="shared" ref="N156" si="176">IF(LEFT(M156,1)="-",-(MID(M156,2,FIND("°",M156)-2)+MID(M156,FIND("°",M156)+1,FIND("′",M156)-FIND("°",M156)-1)/60+MID(M156,FIND("′",M156)+1,FIND("″",M156)-FIND("′",M156)-1)/3600),LEFT(M156,FIND("°",M156)-1)+MID(M156,FIND("°",M156)+1,FIND("′",M156)-FIND("°",M156)-1)/60+MID(M156,FIND("′",M156)+1,FIND("″",M156)-FIND("′",M156)-1)/3600)</f>
         <v>31.89</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA156">
+        <v>48.702376148621703</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>243</v>
       </c>
@@ -30191,8 +30187,11 @@
         <f t="shared" ref="N157" si="179">IF(LEFT(M157,1)="-",-(MID(M157,2,FIND("°",M157)-2)+MID(M157,FIND("°",M157)+1,FIND("′",M157)-FIND("°",M157)-1)/60+MID(M157,FIND("′",M157)+1,FIND("″",M157)-FIND("′",M157)-1)/3600),LEFT(M157,FIND("°",M157)-1)+MID(M157,FIND("°",M157)+1,FIND("′",M157)-FIND("°",M157)-1)/60+MID(M157,FIND("′",M157)+1,FIND("″",M157)-FIND("′",M157)-1)/3600)</f>
         <v>5.5555555555555556E-4</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA157">
+        <v>6.2341368844743101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>249</v>
       </c>
@@ -30241,8 +30240,11 @@
         <f t="shared" ref="N158" si="182">IF(LEFT(M158,1)="-",-(MID(M158,2,FIND("°",M158)-2)+MID(M158,FIND("°",M158)+1,FIND("′",M158)-FIND("°",M158)-1)/60+MID(M158,FIND("′",M158)+1,FIND("″",M158)-FIND("′",M158)-1)/3600),LEFT(M158,FIND("°",M158)-1)+MID(M158,FIND("°",M158)+1,FIND("′",M158)-FIND("°",M158)-1)/60+MID(M158,FIND("′",M158)+1,FIND("″",M158)-FIND("′",M158)-1)/3600)</f>
         <v>51.057499999999997</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA158">
+        <v>16.865948806226299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>250</v>
       </c>
@@ -30291,8 +30293,11 @@
         <f t="shared" ref="N159" si="185">IF(LEFT(M159,1)="-",-(MID(M159,2,FIND("°",M159)-2)+MID(M159,FIND("°",M159)+1,FIND("′",M159)-FIND("°",M159)-1)/60+MID(M159,FIND("′",M159)+1,FIND("″",M159)-FIND("′",M159)-1)/3600),LEFT(M159,FIND("°",M159)-1)+MID(M159,FIND("°",M159)+1,FIND("′",M159)-FIND("°",M159)-1)/60+MID(M159,FIND("′",M159)+1,FIND("″",M159)-FIND("′",M159)-1)/3600)</f>
         <v>13.618055555555555</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="AA159">
+        <v>2.2273081940438302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>251</v>
       </c>
@@ -30341,6 +30346,9 @@
         <f t="shared" ref="N160" si="188">IF(LEFT(M160,1)="-",-(MID(M160,2,FIND("°",M160)-2)+MID(M160,FIND("°",M160)+1,FIND("′",M160)-FIND("°",M160)-1)/60+MID(M160,FIND("′",M160)+1,FIND("″",M160)-FIND("′",M160)-1)/3600),LEFT(M160,FIND("°",M160)-1)+MID(M160,FIND("°",M160)+1,FIND("′",M160)-FIND("°",M160)-1)/60+MID(M160,FIND("′",M160)+1,FIND("″",M160)-FIND("′",M160)-1)/3600)</f>
         <v>5.5555555555555556E-4</v>
       </c>
+      <c r="AA160">
+        <v>9.2177960674542998</v>
+      </c>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -30391,6 +30399,9 @@
         <f t="shared" ref="N161" si="191">IF(LEFT(M161,1)="-",-(MID(M161,2,FIND("°",M161)-2)+MID(M161,FIND("°",M161)+1,FIND("′",M161)-FIND("°",M161)-1)/60+MID(M161,FIND("′",M161)+1,FIND("″",M161)-FIND("′",M161)-1)/3600),LEFT(M161,FIND("°",M161)-1)+MID(M161,FIND("°",M161)+1,FIND("′",M161)-FIND("°",M161)-1)/60+MID(M161,FIND("′",M161)+1,FIND("″",M161)-FIND("′",M161)-1)/3600)</f>
         <v>0.99527777777777771</v>
       </c>
+      <c r="AA161">
+        <v>5.6343426398000798</v>
+      </c>
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -30441,6 +30452,9 @@
         <f t="shared" ref="N162" si="194">IF(LEFT(M162,1)="-",-(MID(M162,2,FIND("°",M162)-2)+MID(M162,FIND("°",M162)+1,FIND("′",M162)-FIND("°",M162)-1)/60+MID(M162,FIND("′",M162)+1,FIND("″",M162)-FIND("′",M162)-1)/3600),LEFT(M162,FIND("°",M162)-1)+MID(M162,FIND("°",M162)+1,FIND("′",M162)-FIND("°",M162)-1)/60+MID(M162,FIND("′",M162)+1,FIND("″",M162)-FIND("′",M162)-1)/3600)</f>
         <v>32.755000000000003</v>
       </c>
+      <c r="AA162">
+        <v>1.96790113167434</v>
+      </c>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -30491,6 +30505,9 @@
         <f t="shared" ref="N163" si="197">IF(LEFT(M163,1)="-",-(MID(M163,2,FIND("°",M163)-2)+MID(M163,FIND("°",M163)+1,FIND("′",M163)-FIND("°",M163)-1)/60+MID(M163,FIND("′",M163)+1,FIND("″",M163)-FIND("′",M163)-1)/3600),LEFT(M163,FIND("°",M163)-1)+MID(M163,FIND("°",M163)+1,FIND("′",M163)-FIND("°",M163)-1)/60+MID(M163,FIND("′",M163)+1,FIND("″",M163)-FIND("′",M163)-1)/3600)</f>
         <v>6.1111111111111116E-2</v>
       </c>
+      <c r="AA163">
+        <v>6.5360233975188304</v>
+      </c>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -30541,6 +30558,9 @@
         <f t="shared" ref="N164" si="200">IF(LEFT(M164,1)="-",-(MID(M164,2,FIND("°",M164)-2)+MID(M164,FIND("°",M164)+1,FIND("′",M164)-FIND("°",M164)-1)/60+MID(M164,FIND("′",M164)+1,FIND("″",M164)-FIND("′",M164)-1)/3600),LEFT(M164,FIND("°",M164)-1)+MID(M164,FIND("°",M164)+1,FIND("′",M164)-FIND("°",M164)-1)/60+MID(M164,FIND("′",M164)+1,FIND("″",M164)-FIND("′",M164)-1)/3600)</f>
         <v>13.670555555555556</v>
       </c>
+      <c r="AA164">
+        <v>2.7654341984341801</v>
+      </c>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
@@ -30591,6 +30611,9 @@
         <f t="shared" ref="N165" si="203">IF(LEFT(M165,1)="-",-(MID(M165,2,FIND("°",M165)-2)+MID(M165,FIND("°",M165)+1,FIND("′",M165)-FIND("°",M165)-1)/60+MID(M165,FIND("′",M165)+1,FIND("″",M165)-FIND("′",M165)-1)/3600),LEFT(M165,FIND("°",M165)-1)+MID(M165,FIND("°",M165)+1,FIND("′",M165)-FIND("°",M165)-1)/60+MID(M165,FIND("′",M165)+1,FIND("″",M165)-FIND("′",M165)-1)/3600)</f>
         <v>-20.507777777777779</v>
       </c>
+      <c r="AA165">
+        <v>0.94919554446754895</v>
+      </c>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -30641,6 +30664,9 @@
         <f t="shared" ref="N166" si="206">IF(LEFT(M166,1)="-",-(MID(M166,2,FIND("°",M166)-2)+MID(M166,FIND("°",M166)+1,FIND("′",M166)-FIND("°",M166)-1)/60+MID(M166,FIND("′",M166)+1,FIND("″",M166)-FIND("′",M166)-1)/3600),LEFT(M166,FIND("°",M166)-1)+MID(M166,FIND("°",M166)+1,FIND("′",M166)-FIND("°",M166)-1)/60+MID(M166,FIND("′",M166)+1,FIND("″",M166)-FIND("′",M166)-1)/3600)</f>
         <v>1.1369444444444443</v>
       </c>
+      <c r="AA166">
+        <v>8.2122858665784992</v>
+      </c>
     </row>
     <row r="167" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -30690,6 +30716,9 @@
       <c r="N167" s="27">
         <f t="shared" ref="N167" si="209">IF(LEFT(M167,1)="-",-(MID(M167,2,FIND("°",M167)-2)+MID(M167,FIND("°",M167)+1,FIND("′",M167)-FIND("°",M167)-1)/60+MID(M167,FIND("′",M167)+1,FIND("″",M167)-FIND("′",M167)-1)/3600),LEFT(M167,FIND("°",M167)-1)+MID(M167,FIND("°",M167)+1,FIND("′",M167)-FIND("°",M167)-1)/60+MID(M167,FIND("′",M167)+1,FIND("″",M167)-FIND("′",M167)-1)/3600)</f>
         <v>59.637777777777778</v>
+      </c>
+      <c r="AA167">
+        <v>7.6948896340315196</v>
       </c>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.2">
@@ -30699,6 +30728,14 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
+      <c r="AA168">
+        <v>13.579636158080699</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA169">
+        <v>38.882174498860799</v>
+      </c>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="53" t="s">
@@ -30711,6 +30748,9 @@
       <c r="F170" s="54"/>
       <c r="G170" s="54"/>
       <c r="H170" s="55"/>
+      <c r="AA170">
+        <v>11.3811557849008</v>
+      </c>
     </row>
     <row r="171" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="59"/>
@@ -30721,6 +30761,9 @@
       <c r="F171" s="51"/>
       <c r="G171" s="51"/>
       <c r="H171" s="57"/>
+      <c r="AA171">
+        <v>10.081783699098001</v>
+      </c>
     </row>
     <row r="172" spans="1:30" ht="57" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
@@ -30753,9 +30796,13 @@
       <c r="R172" s="65"/>
       <c r="S172" s="65"/>
       <c r="T172" s="50"/>
-      <c r="AB172" s="51" t="s">
-        <v>585</v>
-      </c>
+      <c r="V172" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA172">
+        <v>11.068555737307801</v>
+      </c>
+      <c r="AB172" s="51"/>
       <c r="AC172" s="51"/>
       <c r="AD172" s="51"/>
     </row>
@@ -30790,23 +30837,8 @@
         <v>12</v>
       </c>
       <c r="T173" s="16"/>
-      <c r="U173" t="s">
-        <v>578</v>
-      </c>
-      <c r="V173" t="s">
-        <v>579</v>
-      </c>
-      <c r="W173" t="s">
-        <v>580</v>
-      </c>
-      <c r="AB173" t="s">
-        <v>578</v>
-      </c>
-      <c r="AC173" t="s">
-        <v>579</v>
-      </c>
-      <c r="AD173" t="s">
-        <v>580</v>
+      <c r="AA173">
+        <v>17.086444815398501</v>
       </c>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.2">
@@ -30879,36 +30911,11 @@
         <f t="shared" ref="T174:T188" si="218">IF(LEFT(S174,1)="-",-(MID(S174,2,FIND("°",S174)-2)+MID(S174,FIND("°",S174)+1,FIND("′",S174)-FIND("°",S174)-1)/60+MID(S174,FIND("′",S174)+1,FIND("″",S174)-FIND("′",S174)-1)/3600),LEFT(S174,FIND("°",S174)-1)+MID(S174,FIND("°",S174)+1,FIND("′",S174)-FIND("°",S174)-1)/60+MID(S174,FIND("′",S174)+1,FIND("″",S174)-FIND("′",S174)-1)/3600)</f>
         <v>-57.45</v>
       </c>
-      <c r="U174">
-        <f>P174-D174</f>
-        <v>-41.463888888888896</v>
-      </c>
       <c r="V174">
-        <f>R174-F174</f>
-        <v>-21.691666666666666</v>
-      </c>
-      <c r="W174">
-        <f>T174-H174</f>
-        <v>-57.45</v>
-      </c>
-      <c r="X174">
-        <f>(U174-J174)*3600</f>
-        <v>-20.000000000015916</v>
-      </c>
-      <c r="Y174">
-        <f>(V174-L174)*3600</f>
-        <v>0</v>
-      </c>
-      <c r="Z174">
-        <f>(W174-N174)*3600</f>
-        <v>-18.000000000034788</v>
+        <v>27.906685700688602</v>
       </c>
       <c r="AA174">
-        <f>SQRT(X174^2+Y174^2+Z174^2)</f>
-        <v>26.907248094182524</v>
-      </c>
-      <c r="AB174">
-        <v>24.650400000000001</v>
+        <v>36.5394133326133</v>
       </c>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.2">
@@ -30981,36 +30988,11 @@
         <f t="shared" si="218"/>
         <v>-28.676666666666669</v>
       </c>
-      <c r="U175">
-        <f t="shared" ref="U175:U188" si="219">P175-D175</f>
-        <v>-26.557500000000001</v>
-      </c>
       <c r="V175">
-        <f t="shared" ref="V175:V188" si="220">R175-F175</f>
-        <v>-38.881388888888893</v>
-      </c>
-      <c r="W175">
-        <f t="shared" ref="W175:W188" si="221">T175-H175</f>
-        <v>-28.676666666666669</v>
-      </c>
-      <c r="X175">
-        <f t="shared" ref="X175:X188" si="222">(U175-J175)*3600</f>
-        <v>-25.000000000007105</v>
-      </c>
-      <c r="Y175">
-        <f t="shared" ref="Y175:Y188" si="223">(V175-L175)*3600</f>
-        <v>-5.000000000003979</v>
-      </c>
-      <c r="Z175">
-        <f t="shared" ref="Z175:Z188" si="224">(W175-N175)*3600</f>
-        <v>-21.00000000000648</v>
+        <v>41.712797548540202</v>
       </c>
       <c r="AA175">
-        <f t="shared" ref="AA175:AA188" si="225">SQRT(X175^2+Y175^2+Z175^2)</f>
-        <v>33.030289129837591</v>
-      </c>
-      <c r="AB175">
-        <v>20.0532</v>
+        <v>17.445319637954601</v>
       </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.2">
@@ -31083,39 +31065,14 @@
         <f t="shared" si="218"/>
         <v>-43.988611111111112</v>
       </c>
-      <c r="U176">
-        <f t="shared" si="219"/>
-        <v>-38.791944444444439</v>
-      </c>
       <c r="V176">
-        <f t="shared" si="220"/>
-        <v>18.32</v>
-      </c>
-      <c r="W176">
-        <f t="shared" si="221"/>
-        <v>-43.988611111111112</v>
-      </c>
-      <c r="X176">
-        <f t="shared" si="222"/>
-        <v>-8.0000000000012506</v>
-      </c>
-      <c r="Y176">
-        <f t="shared" si="223"/>
-        <v>1.0000000000033538</v>
-      </c>
-      <c r="Z176">
-        <f t="shared" si="224"/>
-        <v>-0.99999999999056399</v>
+        <v>5.1310831836556599</v>
       </c>
       <c r="AA176">
-        <f t="shared" si="225"/>
-        <v>8.124038404636444</v>
-      </c>
-      <c r="AB176">
-        <v>6.4470000000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
+        <v>21.9576945204069</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>242</v>
       </c>
@@ -31185,39 +31142,14 @@
         <f t="shared" si="218"/>
         <v>31.896944444444443</v>
       </c>
-      <c r="U177">
-        <f t="shared" si="219"/>
-        <v>-60.651666666666664</v>
-      </c>
       <c r="V177">
-        <f t="shared" si="220"/>
-        <v>-16.553055555555556</v>
-      </c>
-      <c r="W177">
-        <f t="shared" si="221"/>
-        <v>31.896944444444443</v>
-      </c>
-      <c r="X177">
-        <f t="shared" si="222"/>
-        <v>-10.999999999998522</v>
-      </c>
-      <c r="Y177">
-        <f t="shared" si="223"/>
-        <v>2.0000000000067075</v>
-      </c>
-      <c r="Z177">
-        <f t="shared" si="224"/>
-        <v>-5.000000000003979</v>
+        <v>12.713420004879399</v>
       </c>
       <c r="AA177">
-        <f t="shared" si="225"/>
-        <v>12.247448713917283</v>
-      </c>
-      <c r="AB177">
-        <v>7.9423000000000004</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
+        <v>16.4138720971903</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>243</v>
       </c>
@@ -31287,39 +31219,14 @@
         <f t="shared" si="218"/>
         <v>12.230277777777777</v>
       </c>
-      <c r="U178">
-        <f t="shared" si="219"/>
-        <v>-46.295833333333334</v>
-      </c>
       <c r="V178">
-        <f t="shared" si="220"/>
-        <v>-47.165833333333332</v>
-      </c>
-      <c r="W178">
-        <f t="shared" si="221"/>
-        <v>12.230277777777777</v>
-      </c>
-      <c r="X178">
-        <f t="shared" si="222"/>
-        <v>-31.000000000014438</v>
-      </c>
-      <c r="Y178">
-        <f t="shared" si="223"/>
-        <v>-10.000000000007958</v>
-      </c>
-      <c r="Z178">
-        <f t="shared" si="224"/>
-        <v>-23.000000000000398</v>
+        <v>48.702376148621703</v>
       </c>
       <c r="AA178">
-        <f t="shared" si="225"/>
-        <v>39.874804074767226</v>
-      </c>
-      <c r="AB178">
-        <v>19.3489</v>
-      </c>
-    </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
+        <v>45.328362908685399</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>249</v>
       </c>
@@ -31389,39 +31296,14 @@
         <f t="shared" si="218"/>
         <v>51.057222222222222</v>
       </c>
-      <c r="U179">
-        <f t="shared" si="219"/>
-        <v>28.90861111111111</v>
-      </c>
       <c r="V179">
-        <f t="shared" si="220"/>
-        <v>-13.027222222222223</v>
-      </c>
-      <c r="W179">
-        <f t="shared" si="221"/>
-        <v>51.05777777777778</v>
-      </c>
-      <c r="X179">
-        <f t="shared" si="222"/>
-        <v>2.0000000000067075</v>
-      </c>
-      <c r="Y179">
-        <f t="shared" si="223"/>
-        <v>-4.9999999999975842</v>
-      </c>
-      <c r="Z179">
-        <f t="shared" si="224"/>
-        <v>3.0000000000228511</v>
+        <v>6.2341368844743101</v>
       </c>
       <c r="AA179">
-        <f t="shared" si="225"/>
-        <v>6.1644140029803136</v>
-      </c>
-      <c r="AB179">
-        <v>1.411</v>
-      </c>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+        <v>55.360734773779598</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>250</v>
       </c>
@@ -31491,39 +31373,14 @@
         <f t="shared" si="218"/>
         <v>13.615555555555556</v>
       </c>
-      <c r="U180">
-        <f t="shared" si="219"/>
-        <v>60.437777777777775</v>
-      </c>
       <c r="V180">
-        <f t="shared" si="220"/>
-        <v>3.7205555555555558</v>
-      </c>
-      <c r="W180">
-        <f t="shared" si="221"/>
-        <v>13.615555555555556</v>
-      </c>
-      <c r="X180">
-        <f t="shared" si="222"/>
-        <v>18.000000000009209</v>
-      </c>
-      <c r="Y180">
-        <f t="shared" si="223"/>
-        <v>3.000000000000469</v>
-      </c>
-      <c r="Z180">
-        <f t="shared" si="224"/>
-        <v>-2.0000000000003126</v>
+        <v>16.865948806226299</v>
       </c>
       <c r="AA180">
-        <f t="shared" si="225"/>
-        <v>18.357559750694961</v>
-      </c>
-      <c r="AB180">
-        <v>5.1351000000000004</v>
-      </c>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
+        <v>23.9427446166229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>251</v>
       </c>
@@ -31593,36 +31450,14 @@
         <f t="shared" si="218"/>
         <v>-4.4422222222222221</v>
       </c>
-      <c r="U181">
-        <f t="shared" si="219"/>
-        <v>20.09</v>
-      </c>
       <c r="V181">
-        <f t="shared" si="220"/>
-        <v>0.50722222222222224</v>
-      </c>
-      <c r="W181">
-        <f t="shared" si="221"/>
-        <v>-4.4422222222222221</v>
-      </c>
-      <c r="X181">
-        <f t="shared" si="222"/>
-        <v>2.0000000000067075</v>
-      </c>
-      <c r="Y181">
-        <f t="shared" si="223"/>
-        <v>0</v>
-      </c>
-      <c r="Z181">
-        <f t="shared" si="224"/>
-        <v>1.0000000000001563</v>
+        <v>2.2273081940438302</v>
       </c>
       <c r="AA181">
-        <f t="shared" si="225"/>
-        <v>2.2360679775058592</v>
-      </c>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
+        <v>48.756179058388902</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>252</v>
       </c>
@@ -31692,36 +31527,11 @@
         <f t="shared" si="218"/>
         <v>0.99944444444444436</v>
       </c>
-      <c r="U182">
-        <f t="shared" si="219"/>
-        <v>-90.002499999999998</v>
-      </c>
       <c r="V182">
-        <f t="shared" si="220"/>
-        <v>-0.99916666666666665</v>
-      </c>
-      <c r="W182">
-        <f t="shared" si="221"/>
-        <v>0.99944444444444436</v>
-      </c>
-      <c r="X182">
-        <f t="shared" si="222"/>
-        <v>-8.9999999999918145</v>
-      </c>
-      <c r="Y182">
-        <f t="shared" si="223"/>
-        <v>3.0000000000000693</v>
-      </c>
-      <c r="Z182">
-        <f t="shared" si="224"/>
-        <v>-1.0000000000001563</v>
-      </c>
-      <c r="AA182">
-        <f t="shared" si="225"/>
-        <v>9.5393920141617716</v>
-      </c>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
+        <v>9.2177960674542998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>253</v>
       </c>
@@ -31791,36 +31601,11 @@
         <f t="shared" si="218"/>
         <v>32.753888888888888</v>
       </c>
-      <c r="U183">
-        <f t="shared" si="219"/>
-        <v>37.300277777777772</v>
-      </c>
       <c r="V183">
-        <f t="shared" si="220"/>
-        <v>5.9219444444444447</v>
-      </c>
-      <c r="W183">
-        <f t="shared" si="221"/>
-        <v>32.753888888888888</v>
-      </c>
-      <c r="X183">
-        <f t="shared" si="222"/>
-        <v>5.999999999994543</v>
-      </c>
-      <c r="Y183">
-        <f t="shared" si="223"/>
-        <v>-1.0000000000001563</v>
-      </c>
-      <c r="Z183">
-        <f t="shared" si="224"/>
-        <v>2.0000000000067075</v>
-      </c>
-      <c r="AA183">
-        <f t="shared" si="225"/>
-        <v>6.4031242374298545</v>
-      </c>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
+        <v>5.6343426398000798</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>259</v>
       </c>
@@ -31890,36 +31675,11 @@
         <f t="shared" si="218"/>
         <v>6.0555555555555557E-2</v>
       </c>
-      <c r="U184">
-        <f t="shared" si="219"/>
-        <v>64.983611111111117</v>
-      </c>
       <c r="V184">
-        <f t="shared" si="220"/>
-        <v>-2.2347222222222221</v>
-      </c>
-      <c r="W184">
-        <f t="shared" si="221"/>
-        <v>6.1111111111111109E-2</v>
-      </c>
-      <c r="X184">
-        <f t="shared" si="222"/>
-        <v>0</v>
-      </c>
-      <c r="Y184">
-        <f t="shared" si="223"/>
-        <v>1.0000000000001563</v>
-      </c>
-      <c r="Z184">
-        <f t="shared" si="224"/>
-        <v>1.999999999999988</v>
-      </c>
-      <c r="AA184">
-        <f t="shared" si="225"/>
-        <v>2.2360679774998489</v>
-      </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
+        <v>1.96790113167434</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>260</v>
       </c>
@@ -31989,36 +31749,11 @@
         <f t="shared" si="218"/>
         <v>13.670555555555556</v>
       </c>
-      <c r="U185">
-        <f t="shared" si="219"/>
-        <v>31.299444444444447</v>
-      </c>
       <c r="V185">
-        <f t="shared" si="220"/>
-        <v>-3.513611111111111</v>
-      </c>
-      <c r="W185">
-        <f t="shared" si="221"/>
-        <v>13.670833333333333</v>
-      </c>
-      <c r="X185">
-        <f t="shared" si="222"/>
-        <v>5.000000000003979</v>
-      </c>
-      <c r="Y185">
-        <f t="shared" si="223"/>
-        <v>-2.9999999999988702</v>
-      </c>
-      <c r="Z185">
-        <f t="shared" si="224"/>
-        <v>2.9999999999972715</v>
-      </c>
-      <c r="AA185">
-        <f t="shared" si="225"/>
-        <v>6.5574385243032696</v>
-      </c>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
+        <v>6.5360233975188304</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>261</v>
       </c>
@@ -32088,36 +31823,11 @@
         <f t="shared" si="218"/>
         <v>-20.507777777777779</v>
       </c>
-      <c r="U186">
-        <f t="shared" si="219"/>
-        <v>-30.166666666666668</v>
-      </c>
       <c r="V186">
-        <f t="shared" si="220"/>
-        <v>39.776666666666664</v>
-      </c>
-      <c r="W186">
-        <f t="shared" si="221"/>
-        <v>-20.507777777777779</v>
-      </c>
-      <c r="X186">
-        <f t="shared" si="222"/>
-        <v>1.9999999999939178</v>
-      </c>
-      <c r="Y186">
-        <f t="shared" si="223"/>
-        <v>3.9999999999878355</v>
-      </c>
-      <c r="Z186">
-        <f t="shared" si="224"/>
-        <v>0.99999999999056399</v>
-      </c>
-      <c r="AA186">
-        <f t="shared" si="225"/>
-        <v>4.5825756949405081</v>
-      </c>
-    </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
+        <v>2.7654341984341801</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>262</v>
       </c>
@@ -32187,36 +31897,11 @@
         <f t="shared" si="218"/>
         <v>1.1375</v>
       </c>
-      <c r="U187">
-        <f t="shared" si="219"/>
-        <v>-4.0361111111111114</v>
-      </c>
       <c r="V187">
-        <f t="shared" si="220"/>
-        <v>1.9252777777777776</v>
-      </c>
-      <c r="W187">
-        <f t="shared" si="221"/>
-        <v>1.1375</v>
-      </c>
-      <c r="X187">
-        <f t="shared" si="222"/>
-        <v>0.99999999999695888</v>
-      </c>
-      <c r="Y187">
-        <f t="shared" si="223"/>
-        <v>1.0000000000001563</v>
-      </c>
-      <c r="Z187">
-        <f t="shared" si="224"/>
-        <v>0</v>
-      </c>
-      <c r="AA187">
-        <f t="shared" si="225"/>
-        <v>1.4142135623710552</v>
-      </c>
-    </row>
-    <row r="188" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.94919554446754895</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>263</v>
       </c>
@@ -32286,38 +31971,13 @@
         <f t="shared" si="218"/>
         <v>59.637500000000003</v>
       </c>
-      <c r="U188">
-        <f t="shared" si="219"/>
-        <v>-59.64</v>
-      </c>
       <c r="V188">
-        <f t="shared" si="220"/>
-        <v>-8.4194444444444443</v>
-      </c>
-      <c r="W188">
-        <f t="shared" si="221"/>
-        <v>59.637500000000003</v>
-      </c>
-      <c r="X188">
-        <f t="shared" si="222"/>
-        <v>-5.000000000003979</v>
-      </c>
-      <c r="Y188">
-        <f t="shared" si="223"/>
-        <v>4.9999999999975842</v>
-      </c>
-      <c r="Z188">
-        <f t="shared" si="224"/>
-        <v>-3.9999999999878355</v>
-      </c>
-      <c r="AA188">
-        <f t="shared" si="225"/>
-        <v>8.1240384046309337</v>
-      </c>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
+        <v>8.2122858665784992</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="53" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B191" s="54"/>
       <c r="C191" s="54"/>
@@ -32327,7 +31987,7 @@
       <c r="G191" s="54"/>
       <c r="H191" s="55"/>
     </row>
-    <row r="192" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="56"/>
       <c r="B192" s="51"/>
       <c r="C192" s="51"/>
@@ -32402,14 +32062,10 @@
         <v>12</v>
       </c>
       <c r="T194" s="16"/>
-      <c r="X194" s="51" t="s">
-        <v>582</v>
-      </c>
+      <c r="X194" s="51"/>
       <c r="Y194" s="51"/>
       <c r="Z194" s="51"/>
-      <c r="AA194" s="51" t="s">
-        <v>583</v>
-      </c>
+      <c r="AA194" s="51"/>
       <c r="AB194" s="51"/>
       <c r="AC194" s="51"/>
     </row>
@@ -32424,100 +32080,77 @@
         <v>302</v>
       </c>
       <c r="D195" s="1">
-        <f t="shared" ref="D195:D199" si="226">IF(LEFT(C195,1)="-",-(MID(C195,2,FIND("°",C195)-2)+MID(C195,FIND("°",C195)+1,FIND("′",C195)-FIND("°",C195)-1)/60+MID(C195,FIND("′",C195)+1,FIND("″",C195)-FIND("′",C195)-1)/3600),LEFT(C195,FIND("°",C195)-1)+MID(C195,FIND("°",C195)+1,FIND("′",C195)-FIND("°",C195)-1)/60+MID(C195,FIND("′",C195)+1,FIND("″",C195)-FIND("′",C195)-1)/3600)</f>
+        <f t="shared" ref="D195:D199" si="219">IF(LEFT(C195,1)="-",-(MID(C195,2,FIND("°",C195)-2)+MID(C195,FIND("°",C195)+1,FIND("′",C195)-FIND("°",C195)-1)/60+MID(C195,FIND("′",C195)+1,FIND("″",C195)-FIND("′",C195)-1)/3600),LEFT(C195,FIND("°",C195)-1)+MID(C195,FIND("°",C195)+1,FIND("′",C195)-FIND("°",C195)-1)/60+MID(C195,FIND("′",C195)+1,FIND("″",C195)-FIND("′",C195)-1)/3600)</f>
         <v>60.432777777777773</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>303</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" ref="F195:F199" si="227">IF(LEFT(E195,1)="-",-(MID(E195,2,FIND("°",E195)-2)+MID(E195,FIND("°",E195)+1,FIND("′",E195)-FIND("°",E195)-1)/60+MID(E195,FIND("′",E195)+1,FIND("″",E195)-FIND("′",E195)-1)/3600),LEFT(E195,FIND("°",E195)-1)+MID(E195,FIND("°",E195)+1,FIND("′",E195)-FIND("°",E195)-1)/60+MID(E195,FIND("′",E195)+1,FIND("″",E195)-FIND("′",E195)-1)/3600)</f>
+        <f t="shared" ref="F195:F199" si="220">IF(LEFT(E195,1)="-",-(MID(E195,2,FIND("°",E195)-2)+MID(E195,FIND("°",E195)+1,FIND("′",E195)-FIND("°",E195)-1)/60+MID(E195,FIND("′",E195)+1,FIND("″",E195)-FIND("′",E195)-1)/3600),LEFT(E195,FIND("°",E195)-1)+MID(E195,FIND("°",E195)+1,FIND("′",E195)-FIND("°",E195)-1)/60+MID(E195,FIND("′",E195)+1,FIND("″",E195)-FIND("′",E195)-1)/3600)</f>
         <v>3.7197222222222224</v>
       </c>
       <c r="G195" s="18" t="s">
         <v>304</v>
       </c>
       <c r="H195" s="18">
-        <f t="shared" ref="H195:H199" si="228">IF(LEFT(G195,1)="-",-(MID(G195,2,FIND("°",G195)-2)+MID(G195,FIND("°",G195)+1,FIND("′",G195)-FIND("°",G195)-1)/60+MID(G195,FIND("′",G195)+1,FIND("″",G195)-FIND("′",G195)-1)/3600),LEFT(G195,FIND("°",G195)-1)+MID(G195,FIND("°",G195)+1,FIND("′",G195)-FIND("°",G195)-1)/60+MID(G195,FIND("′",G195)+1,FIND("″",G195)-FIND("′",G195)-1)/3600)</f>
+        <f t="shared" ref="H195:H199" si="221">IF(LEFT(G195,1)="-",-(MID(G195,2,FIND("°",G195)-2)+MID(G195,FIND("°",G195)+1,FIND("′",G195)-FIND("°",G195)-1)/60+MID(G195,FIND("′",G195)+1,FIND("″",G195)-FIND("′",G195)-1)/3600),LEFT(G195,FIND("°",G195)-1)+MID(G195,FIND("°",G195)+1,FIND("′",G195)-FIND("°",G195)-1)/60+MID(G195,FIND("′",G195)+1,FIND("″",G195)-FIND("′",G195)-1)/3600)</f>
         <v>13.616111111111111</v>
       </c>
       <c r="I195" s="17" t="s">
         <v>399</v>
       </c>
       <c r="J195" s="1">
-        <f t="shared" ref="J195:J199" si="229">IF(LEFT(I195,1)="-",-(MID(I195,2,FIND("°",I195)-2)+MID(I195,FIND("°",I195)+1,FIND("′",I195)-FIND("°",I195)-1)/60+MID(I195,FIND("′",I195)+1,FIND("″",I195)-FIND("′",I195)-1)/3600),LEFT(I195,FIND("°",I195)-1)+MID(I195,FIND("°",I195)+1,FIND("′",I195)-FIND("°",I195)-1)/60+MID(I195,FIND("′",I195)+1,FIND("″",I195)-FIND("′",I195)-1)/3600)</f>
+        <f t="shared" ref="J195:J199" si="222">IF(LEFT(I195,1)="-",-(MID(I195,2,FIND("°",I195)-2)+MID(I195,FIND("°",I195)+1,FIND("′",I195)-FIND("°",I195)-1)/60+MID(I195,FIND("′",I195)+1,FIND("″",I195)-FIND("′",I195)-1)/3600),LEFT(I195,FIND("°",I195)-1)+MID(I195,FIND("°",I195)+1,FIND("′",I195)-FIND("°",I195)-1)/60+MID(I195,FIND("′",I195)+1,FIND("″",I195)-FIND("′",I195)-1)/3600)</f>
         <v>60.43472222222222</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>400</v>
       </c>
       <c r="L195" s="1">
-        <f t="shared" ref="L195:L199" si="230">IF(LEFT(K195,1)="-",-(MID(K195,2,FIND("°",K195)-2)+MID(K195,FIND("°",K195)+1,FIND("′",K195)-FIND("°",K195)-1)/60+MID(K195,FIND("′",K195)+1,FIND("″",K195)-FIND("′",K195)-1)/3600),LEFT(K195,FIND("°",K195)-1)+MID(K195,FIND("°",K195)+1,FIND("′",K195)-FIND("°",K195)-1)/60+MID(K195,FIND("′",K195)+1,FIND("″",K195)-FIND("′",K195)-1)/3600)</f>
+        <f t="shared" ref="L195:L199" si="223">IF(LEFT(K195,1)="-",-(MID(K195,2,FIND("°",K195)-2)+MID(K195,FIND("°",K195)+1,FIND("′",K195)-FIND("°",K195)-1)/60+MID(K195,FIND("′",K195)+1,FIND("″",K195)-FIND("′",K195)-1)/3600),LEFT(K195,FIND("°",K195)-1)+MID(K195,FIND("°",K195)+1,FIND("′",K195)-FIND("°",K195)-1)/60+MID(K195,FIND("′",K195)+1,FIND("″",K195)-FIND("′",K195)-1)/3600)</f>
         <v>3.7188888888888889</v>
       </c>
       <c r="M195" s="18" t="s">
         <v>401</v>
       </c>
       <c r="N195" s="18">
-        <f t="shared" ref="N195:N199" si="231">IF(LEFT(M195,1)="-",-(MID(M195,2,FIND("°",M195)-2)+MID(M195,FIND("°",M195)+1,FIND("′",M195)-FIND("°",M195)-1)/60+MID(M195,FIND("′",M195)+1,FIND("″",M195)-FIND("′",M195)-1)/3600),LEFT(M195,FIND("°",M195)-1)+MID(M195,FIND("°",M195)+1,FIND("′",M195)-FIND("°",M195)-1)/60+MID(M195,FIND("′",M195)+1,FIND("″",M195)-FIND("′",M195)-1)/3600)</f>
+        <f t="shared" ref="N195:N199" si="224">IF(LEFT(M195,1)="-",-(MID(M195,2,FIND("°",M195)-2)+MID(M195,FIND("°",M195)+1,FIND("′",M195)-FIND("°",M195)-1)/60+MID(M195,FIND("′",M195)+1,FIND("″",M195)-FIND("′",M195)-1)/3600),LEFT(M195,FIND("°",M195)-1)+MID(M195,FIND("°",M195)+1,FIND("′",M195)-FIND("°",M195)-1)/60+MID(M195,FIND("′",M195)+1,FIND("″",M195)-FIND("′",M195)-1)/3600)</f>
         <v>13.616666666666667</v>
       </c>
       <c r="O195" s="17" t="s">
         <v>413</v>
       </c>
       <c r="P195" s="1">
-        <f t="shared" ref="P195:P199" si="232">IF(LEFT(O195,1)="-",-(MID(O195,2,FIND("°",O195)-2)+MID(O195,FIND("°",O195)+1,FIND("′",O195)-FIND("°",O195)-1)/60+MID(O195,FIND("′",O195)+1,FIND("″",O195)-FIND("′",O195)-1)/3600),LEFT(O195,FIND("°",O195)-1)+MID(O195,FIND("°",O195)+1,FIND("′",O195)-FIND("°",O195)-1)/60+MID(O195,FIND("′",O195)+1,FIND("″",O195)-FIND("′",O195)-1)/3600)</f>
+        <f t="shared" ref="P195:P199" si="225">IF(LEFT(O195,1)="-",-(MID(O195,2,FIND("°",O195)-2)+MID(O195,FIND("°",O195)+1,FIND("′",O195)-FIND("°",O195)-1)/60+MID(O195,FIND("′",O195)+1,FIND("″",O195)-FIND("′",O195)-1)/3600),LEFT(O195,FIND("°",O195)-1)+MID(O195,FIND("°",O195)+1,FIND("′",O195)-FIND("°",O195)-1)/60+MID(O195,FIND("′",O195)+1,FIND("″",O195)-FIND("′",O195)-1)/3600)</f>
         <v>60.434166666666663</v>
       </c>
       <c r="Q195" s="1" t="s">
         <v>414</v>
       </c>
       <c r="R195" s="1">
-        <f t="shared" ref="R195:R199" si="233">IF(LEFT(Q195,1)="-",-(MID(Q195,2,FIND("°",Q195)-2)+MID(Q195,FIND("°",Q195)+1,FIND("′",Q195)-FIND("°",Q195)-1)/60+MID(Q195,FIND("′",Q195)+1,FIND("″",Q195)-FIND("′",Q195)-1)/3600),LEFT(Q195,FIND("°",Q195)-1)+MID(Q195,FIND("°",Q195)+1,FIND("′",Q195)-FIND("°",Q195)-1)/60+MID(Q195,FIND("′",Q195)+1,FIND("″",Q195)-FIND("′",Q195)-1)/3600)</f>
+        <f t="shared" ref="R195:R199" si="226">IF(LEFT(Q195,1)="-",-(MID(Q195,2,FIND("°",Q195)-2)+MID(Q195,FIND("°",Q195)+1,FIND("′",Q195)-FIND("°",Q195)-1)/60+MID(Q195,FIND("′",Q195)+1,FIND("″",Q195)-FIND("′",Q195)-1)/3600),LEFT(Q195,FIND("°",Q195)-1)+MID(Q195,FIND("°",Q195)+1,FIND("′",Q195)-FIND("°",Q195)-1)/60+MID(Q195,FIND("′",Q195)+1,FIND("″",Q195)-FIND("′",Q195)-1)/3600)</f>
         <v>3.7183333333333333</v>
       </c>
       <c r="S195" s="18" t="s">
         <v>415</v>
       </c>
       <c r="T195" s="18">
-        <f t="shared" ref="T195:T199" si="234">IF(LEFT(S195,1)="-",-(MID(S195,2,FIND("°",S195)-2)+MID(S195,FIND("°",S195)+1,FIND("′",S195)-FIND("°",S195)-1)/60+MID(S195,FIND("′",S195)+1,FIND("″",S195)-FIND("′",S195)-1)/3600),LEFT(S195,FIND("°",S195)-1)+MID(S195,FIND("°",S195)+1,FIND("′",S195)-FIND("°",S195)-1)/60+MID(S195,FIND("′",S195)+1,FIND("″",S195)-FIND("′",S195)-1)/3600)</f>
+        <f t="shared" ref="T195:T199" si="227">IF(LEFT(S195,1)="-",-(MID(S195,2,FIND("°",S195)-2)+MID(S195,FIND("°",S195)+1,FIND("′",S195)-FIND("°",S195)-1)/60+MID(S195,FIND("′",S195)+1,FIND("″",S195)-FIND("′",S195)-1)/3600),LEFT(S195,FIND("°",S195)-1)+MID(S195,FIND("°",S195)+1,FIND("′",S195)-FIND("°",S195)-1)/60+MID(S195,FIND("′",S195)+1,FIND("″",S195)-FIND("′",S195)-1)/3600)</f>
         <v>13.61361111111111</v>
       </c>
-      <c r="U195">
-        <f>(P195-J195)*3600</f>
-        <v>-2.0000000000067075</v>
-      </c>
       <c r="V195">
-        <f>(R195-L195)*3600</f>
-        <v>-2.0000000000003126</v>
+        <v>7.6948896340315196</v>
       </c>
       <c r="W195">
-        <f>(T195-N195)*3600</f>
-        <v>-11.000000000004917</v>
+        <v>11.068555737307801</v>
       </c>
       <c r="X195">
-        <f>(J195-D195)*3600</f>
-        <v>7.0000000000106866</v>
-      </c>
-      <c r="Y195">
-        <f>(L195-F195)*3600</f>
-        <v>-3.000000000000469</v>
-      </c>
-      <c r="Z195">
-        <f>(N195-H195)*3600</f>
-        <v>2.0000000000003126</v>
-      </c>
-      <c r="AA195">
-        <v>5.000000000003979</v>
-      </c>
-      <c r="AB195">
-        <v>-5.0000000000007816</v>
-      </c>
-      <c r="AC195">
-        <v>-9.0000000000046043</v>
+        <f>W195-V195</f>
+        <v>3.3736661032762809</v>
       </c>
       <c r="AD195" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.2">
@@ -32531,97 +32164,74 @@
         <v>333</v>
       </c>
       <c r="D196" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>-30.167222222222222</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>334</v>
       </c>
       <c r="F196" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>39.775555555555556</v>
       </c>
       <c r="G196" s="18" t="s">
         <v>335</v>
       </c>
       <c r="H196" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>-20.508055555555554</v>
       </c>
       <c r="I196" s="17" t="s">
         <v>402</v>
       </c>
       <c r="J196" s="1">
-        <f t="shared" si="229"/>
+        <f t="shared" si="222"/>
         <v>-30.16472222222222</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>403</v>
       </c>
       <c r="L196" s="1">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>39.775833333333331</v>
       </c>
       <c r="M196" s="18" t="s">
         <v>404</v>
       </c>
       <c r="N196" s="18">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>-20.509722222222223</v>
       </c>
       <c r="O196" s="17" t="s">
         <v>416</v>
       </c>
       <c r="P196" s="1">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>-30.164166666666667</v>
       </c>
       <c r="Q196" s="1" t="s">
         <v>417</v>
       </c>
       <c r="R196" s="1">
-        <f t="shared" si="233"/>
+        <f t="shared" si="226"/>
         <v>39.778888888888886</v>
       </c>
       <c r="S196" s="18" t="s">
         <v>418</v>
       </c>
       <c r="T196" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="227"/>
         <v>-20.509444444444444</v>
       </c>
-      <c r="U196">
-        <f t="shared" ref="U196:U199" si="235">(P196-J196)*3600</f>
-        <v>1.9999999999939178</v>
-      </c>
       <c r="V196">
-        <f t="shared" ref="V196:V199" si="236">(R196-L196)*3600</f>
-        <v>10.999999999998522</v>
+        <v>13.579636158080699</v>
       </c>
       <c r="W196">
-        <f t="shared" ref="W196:W199" si="237">(T196-N196)*3600</f>
-        <v>1.0000000000033538</v>
+        <v>17.086444815398501</v>
       </c>
       <c r="X196">
-        <f t="shared" ref="X196:X199" si="238">(J196-D196)*3600</f>
-        <v>9.0000000000046043</v>
-      </c>
-      <c r="Y196">
-        <f t="shared" ref="Y196:Y199" si="239">(L196-F196)*3600</f>
-        <v>0.99999999999056399</v>
-      </c>
-      <c r="Z196">
-        <f t="shared" ref="Z196:Z199" si="240">(N196-H196)*3600</f>
-        <v>-6.0000000000073328</v>
-      </c>
-      <c r="AA196">
-        <v>10.999999999998522</v>
-      </c>
-      <c r="AB196">
-        <v>11.999999999989086</v>
-      </c>
-      <c r="AC196">
-        <v>-5.000000000003979</v>
+        <f t="shared" ref="X196:X199" si="228">W196-V196</f>
+        <v>3.5068086573178014</v>
       </c>
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.2">
@@ -32635,97 +32245,74 @@
         <v>272</v>
       </c>
       <c r="D197" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>-26.550555555555555</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F197" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>-38.880000000000003</v>
       </c>
       <c r="G197" s="18" t="s">
         <v>274</v>
       </c>
       <c r="H197" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>-28.670833333333334</v>
       </c>
       <c r="I197" s="17" t="s">
         <v>405</v>
       </c>
       <c r="J197" s="1">
-        <f t="shared" si="229"/>
+        <f t="shared" si="222"/>
         <v>-26.557222222222222</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>406</v>
       </c>
       <c r="L197" s="1">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>-38.87972222222222</v>
       </c>
       <c r="M197" s="18" t="s">
         <v>407</v>
       </c>
       <c r="N197" s="18">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>-28.676388888888891</v>
       </c>
       <c r="O197" s="17" t="s">
         <v>360</v>
       </c>
       <c r="P197" s="1">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>-26.556666666666668</v>
       </c>
       <c r="Q197" s="1" t="s">
         <v>419</v>
       </c>
       <c r="R197" s="1">
-        <f t="shared" si="233"/>
+        <f t="shared" si="226"/>
         <v>-38.876111111111115</v>
       </c>
       <c r="S197" s="18" t="s">
         <v>362</v>
       </c>
       <c r="T197" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="227"/>
         <v>-28.676666666666669</v>
       </c>
-      <c r="U197">
-        <f t="shared" si="235"/>
-        <v>1.9999999999939178</v>
-      </c>
       <c r="V197">
-        <f t="shared" si="236"/>
-        <v>12.99999999997965</v>
+        <v>38.882174498860799</v>
       </c>
       <c r="W197">
-        <f t="shared" si="237"/>
-        <v>-1.0000000000033538</v>
+        <v>36.5394133326133</v>
       </c>
       <c r="X197">
-        <f t="shared" si="238"/>
-        <v>-24.000000000003752</v>
-      </c>
-      <c r="Y197">
-        <f t="shared" si="239"/>
-        <v>1.0000000000161435</v>
-      </c>
-      <c r="Z197">
-        <f t="shared" si="240"/>
-        <v>-20.000000000003126</v>
-      </c>
-      <c r="AA197">
-        <v>-22.000000000009834</v>
-      </c>
-      <c r="AB197">
-        <v>13.999999999995794</v>
-      </c>
-      <c r="AC197">
-        <v>-21.00000000000648</v>
+        <f t="shared" si="228"/>
+        <v>-2.3427611662474987</v>
       </c>
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.2">
@@ -32739,97 +32326,74 @@
         <v>336</v>
       </c>
       <c r="D198" s="1">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>-4.0363888888888884</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>337</v>
       </c>
       <c r="F198" s="1">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>1.9249999999999998</v>
       </c>
       <c r="G198" s="18" t="s">
         <v>338</v>
       </c>
       <c r="H198" s="18">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>1.1375</v>
       </c>
       <c r="I198" s="17" t="s">
         <v>408</v>
       </c>
       <c r="J198" s="1">
-        <f t="shared" si="229"/>
+        <f t="shared" si="222"/>
         <v>-4.0372222222222218</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>348</v>
       </c>
       <c r="L198" s="1">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>1.9255555555555555</v>
       </c>
       <c r="M198" s="18" t="s">
         <v>409</v>
       </c>
       <c r="N198" s="18">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>1.1344444444444444</v>
       </c>
       <c r="O198" s="17" t="s">
         <v>336</v>
       </c>
       <c r="P198" s="1">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>-4.0363888888888884</v>
       </c>
       <c r="Q198" s="1" t="s">
         <v>420</v>
       </c>
       <c r="R198" s="1">
-        <f t="shared" si="233"/>
+        <f t="shared" si="226"/>
         <v>1.9288888888888887</v>
       </c>
       <c r="S198" s="18" t="s">
         <v>421</v>
       </c>
       <c r="T198" s="18">
-        <f t="shared" si="234"/>
+        <f t="shared" si="227"/>
         <v>1.1327777777777779</v>
       </c>
-      <c r="U198">
-        <f t="shared" si="235"/>
-        <v>3.000000000000469</v>
-      </c>
       <c r="V198">
-        <f t="shared" si="236"/>
-        <v>11.999999999999478</v>
+        <v>11.3811557849008</v>
       </c>
       <c r="W198">
-        <f t="shared" si="237"/>
-        <v>-5.9999999999993392</v>
+        <v>17.445319637954601</v>
       </c>
       <c r="X198">
-        <f t="shared" si="238"/>
-        <v>-3.000000000000469</v>
-      </c>
-      <c r="Y198">
-        <f t="shared" si="239"/>
-        <v>2.0000000000003126</v>
-      </c>
-      <c r="Z198">
-        <f t="shared" si="240"/>
-        <v>-11.000000000000121</v>
-      </c>
-      <c r="AA198">
-        <v>0</v>
-      </c>
-      <c r="AB198">
-        <v>13.99999999999979</v>
-      </c>
-      <c r="AC198">
-        <v>-16.99999999999946</v>
+        <f t="shared" si="228"/>
+        <v>6.0641638530538007</v>
       </c>
     </row>
     <row r="199" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -32843,97 +32407,74 @@
         <v>313</v>
       </c>
       <c r="D199" s="26">
-        <f t="shared" si="226"/>
+        <f t="shared" si="219"/>
         <v>37.298611111111107</v>
       </c>
       <c r="E199" s="26" t="s">
         <v>314</v>
       </c>
       <c r="F199" s="26">
-        <f t="shared" si="227"/>
+        <f t="shared" si="220"/>
         <v>5.9222222222222225</v>
       </c>
       <c r="G199" s="27" t="s">
         <v>315</v>
       </c>
       <c r="H199" s="27">
-        <f t="shared" si="228"/>
+        <f t="shared" si="221"/>
         <v>32.75333333333333</v>
       </c>
       <c r="I199" s="25" t="s">
         <v>410</v>
       </c>
       <c r="J199" s="26">
-        <f t="shared" si="229"/>
+        <f t="shared" si="222"/>
         <v>37.29944444444444</v>
       </c>
       <c r="K199" s="26" t="s">
         <v>411</v>
       </c>
       <c r="L199" s="26">
-        <f t="shared" si="230"/>
+        <f t="shared" si="223"/>
         <v>5.9205555555555556</v>
       </c>
       <c r="M199" s="27" t="s">
         <v>412</v>
       </c>
       <c r="N199" s="27">
-        <f t="shared" si="231"/>
+        <f t="shared" si="224"/>
         <v>32.751111111111108</v>
       </c>
       <c r="O199" s="25" t="s">
         <v>422</v>
       </c>
       <c r="P199" s="26">
-        <f t="shared" si="232"/>
+        <f t="shared" si="225"/>
         <v>37.30083333333333</v>
       </c>
       <c r="Q199" s="26" t="s">
         <v>314</v>
       </c>
       <c r="R199" s="26">
-        <f t="shared" si="233"/>
+        <f t="shared" si="226"/>
         <v>5.9222222222222225</v>
       </c>
       <c r="S199" s="27" t="s">
         <v>423</v>
       </c>
       <c r="T199" s="27">
-        <f t="shared" si="234"/>
+        <f t="shared" si="227"/>
         <v>32.747777777777777</v>
       </c>
-      <c r="U199">
-        <f t="shared" si="235"/>
-        <v>5.000000000003979</v>
-      </c>
       <c r="V199">
-        <f t="shared" si="236"/>
-        <v>6.0000000000009379</v>
+        <v>10.081783699098001</v>
       </c>
       <c r="W199">
-        <f t="shared" si="237"/>
-        <v>-11.999999999989086</v>
+        <v>21.9576945204069</v>
       </c>
       <c r="X199">
-        <f t="shared" si="238"/>
-        <v>2.9999999999972715</v>
-      </c>
-      <c r="Y199">
-        <f t="shared" si="239"/>
-        <v>-6.0000000000009379</v>
-      </c>
-      <c r="Z199">
-        <f t="shared" si="240"/>
-        <v>-8.0000000000012506</v>
-      </c>
-      <c r="AA199">
-        <v>8.0000000000012506</v>
-      </c>
-      <c r="AB199">
-        <v>0</v>
-      </c>
-      <c r="AC199">
-        <v>-19.999999999990337</v>
+        <f t="shared" si="228"/>
+        <v>11.875910821308899</v>
       </c>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.2">
@@ -33035,15 +32576,8 @@
         <v>12</v>
       </c>
       <c r="N205" s="18"/>
-      <c r="O205" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P205" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q205" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="O205" s="15"/>
+      <c r="Q205" s="16"/>
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="15" t="s">
@@ -33056,59 +32590,51 @@
         <v>302</v>
       </c>
       <c r="D206" s="1">
-        <f t="shared" ref="D206:D210" si="241">IF(LEFT(C206,1)="-",-(MID(C206,2,FIND("°",C206)-2)+MID(C206,FIND("°",C206)+1,FIND("′",C206)-FIND("°",C206)-1)/60+MID(C206,FIND("′",C206)+1,FIND("″",C206)-FIND("′",C206)-1)/3600),LEFT(C206,FIND("°",C206)-1)+MID(C206,FIND("°",C206)+1,FIND("′",C206)-FIND("°",C206)-1)/60+MID(C206,FIND("′",C206)+1,FIND("″",C206)-FIND("′",C206)-1)/3600)</f>
+        <f t="shared" ref="D206:D210" si="229">IF(LEFT(C206,1)="-",-(MID(C206,2,FIND("°",C206)-2)+MID(C206,FIND("°",C206)+1,FIND("′",C206)-FIND("°",C206)-1)/60+MID(C206,FIND("′",C206)+1,FIND("″",C206)-FIND("′",C206)-1)/3600),LEFT(C206,FIND("°",C206)-1)+MID(C206,FIND("°",C206)+1,FIND("′",C206)-FIND("°",C206)-1)/60+MID(C206,FIND("′",C206)+1,FIND("″",C206)-FIND("′",C206)-1)/3600)</f>
         <v>60.432777777777773</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>303</v>
       </c>
       <c r="F206" s="1">
-        <f t="shared" ref="F206:F210" si="242">IF(LEFT(E206,1)="-",-(MID(E206,2,FIND("°",E206)-2)+MID(E206,FIND("°",E206)+1,FIND("′",E206)-FIND("°",E206)-1)/60+MID(E206,FIND("′",E206)+1,FIND("″",E206)-FIND("′",E206)-1)/3600),LEFT(E206,FIND("°",E206)-1)+MID(E206,FIND("°",E206)+1,FIND("′",E206)-FIND("°",E206)-1)/60+MID(E206,FIND("′",E206)+1,FIND("″",E206)-FIND("′",E206)-1)/3600)</f>
+        <f t="shared" ref="F206:F210" si="230">IF(LEFT(E206,1)="-",-(MID(E206,2,FIND("°",E206)-2)+MID(E206,FIND("°",E206)+1,FIND("′",E206)-FIND("°",E206)-1)/60+MID(E206,FIND("′",E206)+1,FIND("″",E206)-FIND("′",E206)-1)/3600),LEFT(E206,FIND("°",E206)-1)+MID(E206,FIND("°",E206)+1,FIND("′",E206)-FIND("°",E206)-1)/60+MID(E206,FIND("′",E206)+1,FIND("″",E206)-FIND("′",E206)-1)/3600)</f>
         <v>3.7197222222222224</v>
       </c>
       <c r="G206" s="18" t="s">
         <v>304</v>
       </c>
       <c r="H206" s="1">
-        <f t="shared" ref="H206:H210" si="243">IF(LEFT(G206,1)="-",-(MID(G206,2,FIND("°",G206)-2)+MID(G206,FIND("°",G206)+1,FIND("′",G206)-FIND("°",G206)-1)/60+MID(G206,FIND("′",G206)+1,FIND("″",G206)-FIND("′",G206)-1)/3600),LEFT(G206,FIND("°",G206)-1)+MID(G206,FIND("°",G206)+1,FIND("′",G206)-FIND("°",G206)-1)/60+MID(G206,FIND("′",G206)+1,FIND("″",G206)-FIND("′",G206)-1)/3600)</f>
+        <f t="shared" ref="H206:H210" si="231">IF(LEFT(G206,1)="-",-(MID(G206,2,FIND("°",G206)-2)+MID(G206,FIND("°",G206)+1,FIND("′",G206)-FIND("°",G206)-1)/60+MID(G206,FIND("′",G206)+1,FIND("″",G206)-FIND("′",G206)-1)/3600),LEFT(G206,FIND("°",G206)-1)+MID(G206,FIND("°",G206)+1,FIND("′",G206)-FIND("°",G206)-1)/60+MID(G206,FIND("′",G206)+1,FIND("″",G206)-FIND("′",G206)-1)/3600)</f>
         <v>13.616111111111111</v>
       </c>
       <c r="I206" s="17" t="s">
         <v>424</v>
       </c>
       <c r="J206" s="1">
-        <f t="shared" ref="J206:J210" si="244">IF(LEFT(I206,1)="-",-(MID(I206,2,FIND("°",I206)-2)+MID(I206,FIND("°",I206)+1,FIND("′",I206)-FIND("°",I206)-1)/60+MID(I206,FIND("′",I206)+1,FIND("″",I206)-FIND("′",I206)-1)/3600),LEFT(I206,FIND("°",I206)-1)+MID(I206,FIND("°",I206)+1,FIND("′",I206)-FIND("°",I206)-1)/60+MID(I206,FIND("′",I206)+1,FIND("″",I206)-FIND("′",I206)-1)/3600)</f>
+        <f t="shared" ref="J206:J210" si="232">IF(LEFT(I206,1)="-",-(MID(I206,2,FIND("°",I206)-2)+MID(I206,FIND("°",I206)+1,FIND("′",I206)-FIND("°",I206)-1)/60+MID(I206,FIND("′",I206)+1,FIND("″",I206)-FIND("′",I206)-1)/3600),LEFT(I206,FIND("°",I206)-1)+MID(I206,FIND("°",I206)+1,FIND("′",I206)-FIND("°",I206)-1)/60+MID(I206,FIND("′",I206)+1,FIND("″",I206)-FIND("′",I206)-1)/3600)</f>
         <v>60.43611111111111</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>425</v>
       </c>
       <c r="L206" s="1">
-        <f t="shared" ref="L206:L210" si="245">IF(LEFT(K206,1)="-",-(MID(K206,2,FIND("°",K206)-2)+MID(K206,FIND("°",K206)+1,FIND("′",K206)-FIND("°",K206)-1)/60+MID(K206,FIND("′",K206)+1,FIND("″",K206)-FIND("′",K206)-1)/3600),LEFT(K206,FIND("°",K206)-1)+MID(K206,FIND("°",K206)+1,FIND("′",K206)-FIND("°",K206)-1)/60+MID(K206,FIND("′",K206)+1,FIND("″",K206)-FIND("′",K206)-1)/3600)</f>
+        <f t="shared" ref="L206:L210" si="233">IF(LEFT(K206,1)="-",-(MID(K206,2,FIND("°",K206)-2)+MID(K206,FIND("°",K206)+1,FIND("′",K206)-FIND("°",K206)-1)/60+MID(K206,FIND("′",K206)+1,FIND("″",K206)-FIND("′",K206)-1)/3600),LEFT(K206,FIND("°",K206)-1)+MID(K206,FIND("°",K206)+1,FIND("′",K206)-FIND("°",K206)-1)/60+MID(K206,FIND("′",K206)+1,FIND("″",K206)-FIND("′",K206)-1)/3600)</f>
         <v>3.7147222222222225</v>
       </c>
       <c r="M206" s="18" t="s">
         <v>401</v>
       </c>
       <c r="N206" s="18">
-        <f t="shared" ref="N206:N210" si="246">IF(LEFT(M206,1)="-",-(MID(M206,2,FIND("°",M206)-2)+MID(M206,FIND("°",M206)+1,FIND("′",M206)-FIND("°",M206)-1)/60+MID(M206,FIND("′",M206)+1,FIND("″",M206)-FIND("′",M206)-1)/3600),LEFT(M206,FIND("°",M206)-1)+MID(M206,FIND("°",M206)+1,FIND("′",M206)-FIND("°",M206)-1)/60+MID(M206,FIND("′",M206)+1,FIND("″",M206)-FIND("′",M206)-1)/3600)</f>
+        <f t="shared" ref="N206:N210" si="234">IF(LEFT(M206,1)="-",-(MID(M206,2,FIND("°",M206)-2)+MID(M206,FIND("°",M206)+1,FIND("′",M206)-FIND("°",M206)-1)/60+MID(M206,FIND("′",M206)+1,FIND("″",M206)-FIND("′",M206)-1)/3600),LEFT(M206,FIND("°",M206)-1)+MID(M206,FIND("°",M206)+1,FIND("′",M206)-FIND("°",M206)-1)/60+MID(M206,FIND("′",M206)+1,FIND("″",M206)-FIND("′",M206)-1)/3600)</f>
         <v>13.616666666666667</v>
       </c>
-      <c r="O206" s="1">
-        <f>(J206-D206)*3600</f>
-        <v>12.000000000014666</v>
-      </c>
-      <c r="P206" s="1">
-        <f>(L206-F206)*3600+2</f>
-        <v>-15.999999999999616</v>
+      <c r="O206" s="1"/>
+      <c r="P206">
+        <v>16.4138720971903</v>
       </c>
       <c r="Q206">
-        <f>(N206-H206)*3600+2</f>
-        <v>4.0000000000003126</v>
-      </c>
-      <c r="R206">
-        <f>SQRT(O206^2+P206^2+Q206^2)</f>
-        <v>20.396078054379529</v>
+        <f>P206/60</f>
+        <v>0.27356453495317168</v>
       </c>
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.2">
@@ -33122,59 +32648,51 @@
         <v>333</v>
       </c>
       <c r="D207" s="1">
-        <f t="shared" si="241"/>
+        <f t="shared" si="229"/>
         <v>-30.167222222222222</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>334</v>
       </c>
       <c r="F207" s="1">
-        <f t="shared" si="242"/>
+        <f t="shared" si="230"/>
         <v>39.775555555555556</v>
       </c>
       <c r="G207" s="18" t="s">
         <v>335</v>
       </c>
       <c r="H207" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="231"/>
         <v>-20.508055555555554</v>
       </c>
       <c r="I207" s="17" t="s">
         <v>426</v>
       </c>
       <c r="J207" s="1">
-        <f t="shared" si="244"/>
+        <f t="shared" si="232"/>
         <v>-30.159444444444443</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>427</v>
       </c>
       <c r="L207" s="1">
-        <f t="shared" si="245"/>
+        <f t="shared" si="233"/>
         <v>39.775277777777774</v>
       </c>
       <c r="M207" s="18" t="s">
         <v>428</v>
       </c>
       <c r="N207" s="18">
-        <f t="shared" si="246"/>
+        <f t="shared" si="234"/>
         <v>-20.514444444444443</v>
       </c>
-      <c r="O207" s="1">
-        <f t="shared" ref="O207:O211" si="247">(J207-D207)*3600</f>
-        <v>28.000000000004377</v>
-      </c>
-      <c r="P207" s="1">
-        <f t="shared" ref="P207:P211" si="248">(L207-F207)*3600+2</f>
-        <v>0.99999999998385647</v>
+      <c r="O207" s="1"/>
+      <c r="P207">
+        <v>45.328362908685399</v>
       </c>
       <c r="Q207">
-        <f t="shared" ref="Q207:Q211" si="249">(N207-H207)*3600+2</f>
-        <v>-21.000000000000398</v>
-      </c>
-      <c r="R207">
-        <f t="shared" ref="R207:R210" si="250">SQRT(O207^2+P207^2+Q207^2)</f>
-        <v>35.014282800026471</v>
+        <f t="shared" ref="Q207:Q210" si="235">P207/60</f>
+        <v>0.75547271514475667</v>
       </c>
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.2">
@@ -33188,62 +32706,54 @@
         <v>272</v>
       </c>
       <c r="D208" s="1">
-        <f t="shared" si="241"/>
+        <f t="shared" si="229"/>
         <v>-26.550555555555555</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F208" s="1">
-        <f t="shared" si="242"/>
+        <f t="shared" si="230"/>
         <v>-38.880000000000003</v>
       </c>
       <c r="G208" s="18" t="s">
         <v>274</v>
       </c>
       <c r="H208" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="231"/>
         <v>-28.670833333333334</v>
       </c>
       <c r="I208" s="17" t="s">
         <v>429</v>
       </c>
       <c r="J208" s="1">
-        <f t="shared" si="244"/>
+        <f t="shared" si="232"/>
         <v>-26.55777777777778</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>430</v>
       </c>
       <c r="L208" s="1">
-        <f t="shared" si="245"/>
+        <f t="shared" si="233"/>
         <v>-38.879444444444445</v>
       </c>
       <c r="M208" s="18" t="s">
         <v>431</v>
       </c>
       <c r="N208" s="18">
-        <f t="shared" si="246"/>
+        <f t="shared" si="234"/>
         <v>-28.680833333333336</v>
       </c>
-      <c r="O208" s="1">
-        <f t="shared" si="247"/>
-        <v>-26.000000000010459</v>
-      </c>
-      <c r="P208" s="1">
-        <f t="shared" si="248"/>
-        <v>4.0000000000067075</v>
+      <c r="O208" s="1"/>
+      <c r="P208">
+        <v>55.360734773779598</v>
       </c>
       <c r="Q208">
-        <f t="shared" si="249"/>
-        <v>-34.000000000005627</v>
-      </c>
-      <c r="R208">
-        <f t="shared" si="250"/>
-        <v>42.988370520420752</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="235"/>
+        <v>0.92267891289632664</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="15" t="s">
         <v>262</v>
       </c>
@@ -33254,62 +32764,54 @@
         <v>336</v>
       </c>
       <c r="D209" s="1">
-        <f t="shared" si="241"/>
+        <f t="shared" si="229"/>
         <v>-4.0363888888888884</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>337</v>
       </c>
       <c r="F209" s="1">
-        <f t="shared" si="242"/>
+        <f t="shared" si="230"/>
         <v>1.9249999999999998</v>
       </c>
       <c r="G209" s="18" t="s">
         <v>338</v>
       </c>
       <c r="H209" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="231"/>
         <v>1.1375</v>
       </c>
       <c r="I209" s="17" t="s">
         <v>432</v>
       </c>
       <c r="J209" s="1">
-        <f t="shared" si="244"/>
+        <f t="shared" si="232"/>
         <v>-4.0347222222222223</v>
       </c>
       <c r="K209" s="1" t="s">
         <v>433</v>
       </c>
       <c r="L209" s="1">
-        <f t="shared" si="245"/>
+        <f t="shared" si="233"/>
         <v>1.924722222222222</v>
       </c>
       <c r="M209" s="18" t="s">
         <v>434</v>
       </c>
       <c r="N209" s="18">
-        <f t="shared" si="246"/>
+        <f t="shared" si="234"/>
         <v>1.1311111111111112</v>
       </c>
-      <c r="O209" s="1">
-        <f t="shared" si="247"/>
-        <v>5.9999999999977405</v>
-      </c>
-      <c r="P209" s="1">
-        <f t="shared" si="248"/>
-        <v>0.99999999999984368</v>
+      <c r="O209" s="1"/>
+      <c r="P209">
+        <v>23.9427446166229</v>
       </c>
       <c r="Q209">
-        <f t="shared" si="249"/>
-        <v>-20.999999999999599</v>
-      </c>
-      <c r="R209">
-        <f t="shared" si="250"/>
-        <v>21.863211109074431</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="235"/>
+        <v>0.39904574361038164</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="30" t="s">
         <v>396</v>
       </c>
@@ -33320,62 +32822,54 @@
         <v>313</v>
       </c>
       <c r="D210" s="26">
-        <f t="shared" si="241"/>
+        <f t="shared" si="229"/>
         <v>37.298611111111107</v>
       </c>
       <c r="E210" s="26" t="s">
         <v>314</v>
       </c>
       <c r="F210" s="26">
-        <f t="shared" si="242"/>
+        <f t="shared" si="230"/>
         <v>5.9222222222222225</v>
       </c>
       <c r="G210" s="27" t="s">
         <v>315</v>
       </c>
       <c r="H210" s="26">
-        <f t="shared" si="243"/>
+        <f t="shared" si="231"/>
         <v>32.75333333333333</v>
       </c>
       <c r="I210" s="25" t="s">
         <v>435</v>
       </c>
       <c r="J210" s="26">
-        <f t="shared" si="244"/>
+        <f t="shared" si="232"/>
         <v>37.301944444444445</v>
       </c>
       <c r="K210" s="26" t="s">
         <v>436</v>
       </c>
       <c r="L210" s="26">
-        <f t="shared" si="245"/>
+        <f t="shared" si="233"/>
         <v>5.9177777777777782</v>
       </c>
       <c r="M210" s="27" t="s">
         <v>437</v>
       </c>
       <c r="N210" s="27">
-        <f t="shared" si="246"/>
+        <f t="shared" si="234"/>
         <v>32.766111111111108</v>
       </c>
-      <c r="O210" s="1">
-        <f t="shared" si="247"/>
-        <v>12.000000000014666</v>
-      </c>
-      <c r="P210" s="1">
-        <f t="shared" si="248"/>
-        <v>-13.999999999999304</v>
+      <c r="O210" s="1"/>
+      <c r="P210">
+        <v>48.756179058388902</v>
       </c>
       <c r="Q210">
-        <f t="shared" si="249"/>
-        <v>48.000000000000796</v>
-      </c>
-      <c r="R210">
-        <f t="shared" si="250"/>
-        <v>51.419840528733737</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="235"/>
+        <v>0.8126029843064817</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D211">
         <v>0</v>
       </c>
@@ -33385,20 +32879,10 @@
       <c r="H211">
         <v>0</v>
       </c>
-      <c r="O211" s="1">
-        <f t="shared" si="247"/>
-        <v>0</v>
-      </c>
-      <c r="P211" s="1">
-        <f t="shared" si="248"/>
-        <v>2</v>
-      </c>
-      <c r="Q211">
-        <f t="shared" si="249"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="53" t="s">
         <v>446</v>
       </c>
@@ -33410,7 +32894,7 @@
       <c r="G214" s="54"/>
       <c r="H214" s="55"/>
     </row>
-    <row r="215" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="56"/>
       <c r="B215" s="51"/>
       <c r="C215" s="51"/>
@@ -33420,7 +32904,7 @@
       <c r="G215" s="51"/>
       <c r="H215" s="57"/>
     </row>
-    <row r="216" spans="1:18" ht="57" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A216" s="28" t="s">
         <v>4</v>
       </c>
@@ -33444,7 +32928,7 @@
       <c r="M216" s="65"/>
       <c r="N216" s="50"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="15"/>
       <c r="B217" s="16"/>
       <c r="C217" s="15" t="s">
@@ -33468,7 +32952,7 @@
       </c>
       <c r="N217" s="16"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
         <v>438</v>
       </c>
@@ -33479,46 +32963,46 @@
         <v>447</v>
       </c>
       <c r="D218" s="1">
-        <f t="shared" ref="D218:D222" si="251">IF(LEFT(C218,1)="-",-(MID(C218,2,FIND("°",C218)-2)+MID(C218,FIND("°",C218)+1,FIND("′",C218)-FIND("°",C218)-1)/60+MID(C218,FIND("′",C218)+1,FIND("″",C218)-FIND("′",C218)-1)/3600),LEFT(C218,FIND("°",C218)-1)+MID(C218,FIND("°",C218)+1,FIND("′",C218)-FIND("°",C218)-1)/60+MID(C218,FIND("′",C218)+1,FIND("″",C218)-FIND("′",C218)-1)/3600)</f>
+        <f t="shared" ref="D218:D222" si="236">IF(LEFT(C218,1)="-",-(MID(C218,2,FIND("°",C218)-2)+MID(C218,FIND("°",C218)+1,FIND("′",C218)-FIND("°",C218)-1)/60+MID(C218,FIND("′",C218)+1,FIND("″",C218)-FIND("′",C218)-1)/3600),LEFT(C218,FIND("°",C218)-1)+MID(C218,FIND("°",C218)+1,FIND("′",C218)-FIND("°",C218)-1)/60+MID(C218,FIND("′",C218)+1,FIND("″",C218)-FIND("′",C218)-1)/3600)</f>
         <v>41.62972222222222</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>448</v>
       </c>
       <c r="F218" s="1">
-        <f t="shared" ref="F218:F222" si="252">IF(LEFT(E218,1)="-",-(MID(E218,2,FIND("°",E218)-2)+MID(E218,FIND("°",E218)+1,FIND("′",E218)-FIND("°",E218)-1)/60+MID(E218,FIND("′",E218)+1,FIND("″",E218)-FIND("′",E218)-1)/3600),LEFT(E218,FIND("°",E218)-1)+MID(E218,FIND("°",E218)+1,FIND("′",E218)-FIND("°",E218)-1)/60+MID(E218,FIND("′",E218)+1,FIND("″",E218)-FIND("′",E218)-1)/3600)</f>
+        <f t="shared" ref="F218:F222" si="237">IF(LEFT(E218,1)="-",-(MID(E218,2,FIND("°",E218)-2)+MID(E218,FIND("°",E218)+1,FIND("′",E218)-FIND("°",E218)-1)/60+MID(E218,FIND("′",E218)+1,FIND("″",E218)-FIND("′",E218)-1)/3600),LEFT(E218,FIND("°",E218)-1)+MID(E218,FIND("°",E218)+1,FIND("′",E218)-FIND("°",E218)-1)/60+MID(E218,FIND("′",E218)+1,FIND("″",E218)-FIND("′",E218)-1)/3600)</f>
         <v>-15.619722222222222</v>
       </c>
       <c r="G218" s="18" t="s">
         <v>449</v>
       </c>
       <c r="H218" s="18">
-        <f t="shared" ref="H218:H222" si="253">IF(LEFT(G218,1)="-",-(MID(G218,2,FIND("°",G218)-2)+MID(G218,FIND("°",G218)+1,FIND("′",G218)-FIND("°",G218)-1)/60+MID(G218,FIND("′",G218)+1,FIND("″",G218)-FIND("′",G218)-1)/3600),LEFT(G218,FIND("°",G218)-1)+MID(G218,FIND("°",G218)+1,FIND("′",G218)-FIND("°",G218)-1)/60+MID(G218,FIND("′",G218)+1,FIND("″",G218)-FIND("′",G218)-1)/3600)</f>
+        <f t="shared" ref="H218:H222" si="238">IF(LEFT(G218,1)="-",-(MID(G218,2,FIND("°",G218)-2)+MID(G218,FIND("°",G218)+1,FIND("′",G218)-FIND("°",G218)-1)/60+MID(G218,FIND("′",G218)+1,FIND("″",G218)-FIND("′",G218)-1)/3600),LEFT(G218,FIND("°",G218)-1)+MID(G218,FIND("°",G218)+1,FIND("′",G218)-FIND("°",G218)-1)/60+MID(G218,FIND("′",G218)+1,FIND("″",G218)-FIND("′",G218)-1)/3600)</f>
         <v>-46.374166666666667</v>
       </c>
       <c r="I218" s="17" t="s">
         <v>461</v>
       </c>
       <c r="J218" s="1">
-        <f t="shared" ref="J218:J222" si="254">IF(LEFT(I218,1)="-",-(MID(I218,2,FIND("°",I218)-2)+MID(I218,FIND("°",I218)+1,FIND("′",I218)-FIND("°",I218)-1)/60+MID(I218,FIND("′",I218)+1,FIND("″",I218)-FIND("′",I218)-1)/3600),LEFT(I218,FIND("°",I218)-1)+MID(I218,FIND("°",I218)+1,FIND("′",I218)-FIND("°",I218)-1)/60+MID(I218,FIND("′",I218)+1,FIND("″",I218)-FIND("′",I218)-1)/3600)</f>
+        <f t="shared" ref="J218:J222" si="239">IF(LEFT(I218,1)="-",-(MID(I218,2,FIND("°",I218)-2)+MID(I218,FIND("°",I218)+1,FIND("′",I218)-FIND("°",I218)-1)/60+MID(I218,FIND("′",I218)+1,FIND("″",I218)-FIND("′",I218)-1)/3600),LEFT(I218,FIND("°",I218)-1)+MID(I218,FIND("°",I218)+1,FIND("′",I218)-FIND("°",I218)-1)/60+MID(I218,FIND("′",I218)+1,FIND("″",I218)-FIND("′",I218)-1)/3600)</f>
         <v>41.62833333333333</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>462</v>
       </c>
       <c r="L218" s="1">
-        <f t="shared" ref="L218:L222" si="255">IF(LEFT(K218,1)="-",-(MID(K218,2,FIND("°",K218)-2)+MID(K218,FIND("°",K218)+1,FIND("′",K218)-FIND("°",K218)-1)/60+MID(K218,FIND("′",K218)+1,FIND("″",K218)-FIND("′",K218)-1)/3600),LEFT(K218,FIND("°",K218)-1)+MID(K218,FIND("°",K218)+1,FIND("′",K218)-FIND("°",K218)-1)/60+MID(K218,FIND("′",K218)+1,FIND("″",K218)-FIND("′",K218)-1)/3600)</f>
+        <f t="shared" ref="L218:L222" si="240">IF(LEFT(K218,1)="-",-(MID(K218,2,FIND("°",K218)-2)+MID(K218,FIND("°",K218)+1,FIND("′",K218)-FIND("°",K218)-1)/60+MID(K218,FIND("′",K218)+1,FIND("″",K218)-FIND("′",K218)-1)/3600),LEFT(K218,FIND("°",K218)-1)+MID(K218,FIND("°",K218)+1,FIND("′",K218)-FIND("°",K218)-1)/60+MID(K218,FIND("′",K218)+1,FIND("″",K218)-FIND("′",K218)-1)/3600)</f>
         <v>-15.624444444444444</v>
       </c>
       <c r="M218" s="18" t="s">
         <v>463</v>
       </c>
       <c r="N218" s="18">
-        <f t="shared" ref="N218:N222" si="256">IF(LEFT(M218,1)="-",-(MID(M218,2,FIND("°",M218)-2)+MID(M218,FIND("°",M218)+1,FIND("′",M218)-FIND("°",M218)-1)/60+MID(M218,FIND("′",M218)+1,FIND("″",M218)-FIND("′",M218)-1)/3600),LEFT(M218,FIND("°",M218)-1)+MID(M218,FIND("°",M218)+1,FIND("′",M218)-FIND("°",M218)-1)/60+MID(M218,FIND("′",M218)+1,FIND("″",M218)-FIND("′",M218)-1)/3600)</f>
+        <f t="shared" ref="N218:N222" si="241">IF(LEFT(M218,1)="-",-(MID(M218,2,FIND("°",M218)-2)+MID(M218,FIND("°",M218)+1,FIND("′",M218)-FIND("°",M218)-1)/60+MID(M218,FIND("′",M218)+1,FIND("″",M218)-FIND("′",M218)-1)/3600),LEFT(M218,FIND("°",M218)-1)+MID(M218,FIND("°",M218)+1,FIND("′",M218)-FIND("°",M218)-1)/60+MID(M218,FIND("′",M218)+1,FIND("″",M218)-FIND("′",M218)-1)/3600)</f>
         <v>-46.373055555555553</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="15" t="s">
         <v>439</v>
       </c>
@@ -33529,46 +33013,46 @@
         <v>450</v>
       </c>
       <c r="D219" s="1">
-        <f t="shared" si="251"/>
+        <f t="shared" si="236"/>
         <v>-16.012777777777778</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>451</v>
       </c>
       <c r="F219" s="1">
-        <f t="shared" si="252"/>
+        <f t="shared" si="237"/>
         <v>15.682777777777778</v>
       </c>
       <c r="G219" s="18" t="s">
         <v>450</v>
       </c>
       <c r="H219" s="18">
-        <f t="shared" si="253"/>
+        <f t="shared" si="238"/>
         <v>-16.012777777777778</v>
       </c>
       <c r="I219" s="17" t="s">
         <v>464</v>
       </c>
       <c r="J219" s="1">
-        <f t="shared" si="254"/>
+        <f t="shared" si="239"/>
         <v>-16.013888888888889</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>451</v>
       </c>
       <c r="L219" s="1">
-        <f t="shared" si="255"/>
+        <f t="shared" si="240"/>
         <v>15.682777777777778</v>
       </c>
       <c r="M219" s="18" t="s">
         <v>465</v>
       </c>
       <c r="N219" s="18">
-        <f t="shared" si="256"/>
+        <f t="shared" si="241"/>
         <v>-16.016944444444444</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="15" t="s">
         <v>440</v>
       </c>
@@ -33579,46 +33063,46 @@
         <v>452</v>
       </c>
       <c r="D220" s="1">
-        <f t="shared" si="251"/>
+        <f t="shared" si="236"/>
         <v>-10.016666666666667</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>453</v>
       </c>
       <c r="F220" s="1">
-        <f t="shared" si="252"/>
+        <f t="shared" si="237"/>
         <v>0.81083333333333341</v>
       </c>
       <c r="G220" s="18" t="s">
         <v>454</v>
       </c>
       <c r="H220" s="18">
-        <f t="shared" si="253"/>
+        <f t="shared" si="238"/>
         <v>1.1583333333333332</v>
       </c>
       <c r="I220" s="17" t="s">
         <v>466</v>
       </c>
       <c r="J220" s="1">
-        <f t="shared" si="254"/>
+        <f t="shared" si="239"/>
         <v>-10.019722222222223</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>467</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="255"/>
+        <f t="shared" si="240"/>
         <v>0.80833333333333335</v>
       </c>
       <c r="M220" s="18" t="s">
         <v>468</v>
       </c>
       <c r="N220" s="18">
-        <f t="shared" si="256"/>
+        <f t="shared" si="241"/>
         <v>1.1538888888888887</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" s="15" t="s">
         <v>441</v>
       </c>
@@ -33629,46 +33113,46 @@
         <v>455</v>
       </c>
       <c r="D221" s="1">
-        <f t="shared" si="251"/>
+        <f t="shared" si="236"/>
         <v>20.015277777777779</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>456</v>
       </c>
       <c r="F221" s="1">
-        <f t="shared" si="252"/>
+        <f t="shared" si="237"/>
         <v>0.59750000000000003</v>
       </c>
       <c r="G221" s="18" t="s">
         <v>457</v>
       </c>
       <c r="H221" s="18">
-        <f t="shared" si="253"/>
+        <f t="shared" si="238"/>
         <v>1.2816666666666665</v>
       </c>
       <c r="I221" s="17" t="s">
         <v>469</v>
       </c>
       <c r="J221" s="1">
-        <f t="shared" si="254"/>
+        <f t="shared" si="239"/>
         <v>20.012777777777778</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>470</v>
       </c>
       <c r="L221" s="1">
-        <f t="shared" si="255"/>
+        <f t="shared" si="240"/>
         <v>-0.60138888888888886</v>
       </c>
       <c r="M221" s="18" t="s">
         <v>471</v>
       </c>
       <c r="N221" s="18">
-        <f t="shared" si="256"/>
+        <f t="shared" si="241"/>
         <v>1.2788888888888887</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="30" t="s">
         <v>396</v>
       </c>
@@ -33679,44 +33163,59 @@
         <v>458</v>
       </c>
       <c r="D222" s="26">
-        <f t="shared" si="251"/>
+        <f t="shared" si="236"/>
         <v>37.299166666666665</v>
       </c>
       <c r="E222" s="26" t="s">
         <v>459</v>
       </c>
       <c r="F222" s="26">
-        <f t="shared" si="252"/>
+        <f t="shared" si="237"/>
         <v>5.9194444444444452</v>
       </c>
       <c r="G222" s="27" t="s">
         <v>460</v>
       </c>
       <c r="H222" s="27">
-        <f t="shared" si="253"/>
+        <f t="shared" si="238"/>
         <v>32.751666666666665</v>
       </c>
       <c r="I222" s="25" t="s">
         <v>472</v>
       </c>
       <c r="J222" s="26">
-        <f t="shared" si="254"/>
+        <f t="shared" si="239"/>
         <v>37.298055555555557</v>
       </c>
       <c r="K222" s="26" t="s">
         <v>473</v>
       </c>
       <c r="L222" s="26">
-        <f t="shared" si="255"/>
+        <f t="shared" si="240"/>
         <v>5.9175000000000004</v>
       </c>
       <c r="M222" s="27" t="s">
         <v>474</v>
       </c>
       <c r="N222" s="27">
-        <f t="shared" si="256"/>
+        <f t="shared" si="241"/>
         <v>32.75416666666667</v>
       </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="4:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D229" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -33733,30 +33232,30 @@
     <mergeCell ref="O193:T193"/>
     <mergeCell ref="I204:N204"/>
     <mergeCell ref="C204:H204"/>
-    <mergeCell ref="A97:H98"/>
-    <mergeCell ref="A111:H112"/>
     <mergeCell ref="I128:O128"/>
     <mergeCell ref="C128:H128"/>
     <mergeCell ref="I172:N172"/>
     <mergeCell ref="O172:T172"/>
     <mergeCell ref="C172:H172"/>
     <mergeCell ref="A170:H171"/>
-    <mergeCell ref="J126:O127"/>
     <mergeCell ref="I151:N151"/>
     <mergeCell ref="C151:H151"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="A149:H150"/>
+    <mergeCell ref="J56:O57"/>
+    <mergeCell ref="I64:N65"/>
+    <mergeCell ref="I75:N76"/>
+    <mergeCell ref="I97:N98"/>
+    <mergeCell ref="I111:N112"/>
     <mergeCell ref="A126:H127"/>
-    <mergeCell ref="A149:H150"/>
     <mergeCell ref="I77:N77"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="I99:N99"/>
     <mergeCell ref="C99:H99"/>
     <mergeCell ref="I113:N113"/>
     <mergeCell ref="C113:H113"/>
-    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="A97:H98"/>
+    <mergeCell ref="A111:H112"/>
+    <mergeCell ref="J126:O127"/>
     <mergeCell ref="A75:H76"/>
     <mergeCell ref="I13:N13"/>
     <mergeCell ref="C13:H13"/>
@@ -33771,7 +33270,8 @@
     <mergeCell ref="A20:C21"/>
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="I22:M22"/>
-    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="I40:N40"/>
     <mergeCell ref="H1:M2"/>
     <mergeCell ref="H11:M12"/>
     <mergeCell ref="I20:N21"/>
@@ -33779,11 +33279,10 @@
     <mergeCell ref="I46:N47"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="B11:G12"/>
-    <mergeCell ref="J56:O57"/>
-    <mergeCell ref="I64:N65"/>
-    <mergeCell ref="I75:N76"/>
-    <mergeCell ref="I97:N98"/>
-    <mergeCell ref="I111:N112"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:M30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
